--- a/PGDM Datasets/Performance/CM-Worksheet.xlsx
+++ b/PGDM Datasets/Performance/CM-Worksheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Angeline\Teaching\business analytics\BA-PGPM\21-22\Datasets - CoursePack - Students\04_Performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Angeline\Website building\angeline-fernando\PGDM Datasets\Performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F896A38B-8490-43B5-9A1E-136D8EFB1199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB97BA-2D80-4CB5-9F6B-C02CB1B41833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{25D0E2D3-B17A-4B6E-B7CE-700EEBB58180}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25D0E2D3-B17A-4B6E-B7CE-700EEBB58180}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="2-Case" sheetId="3" r:id="rId3"/>
-    <sheet name="3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Number of False Negatives</t>
   </si>
@@ -148,12 +147,6 @@
   </si>
   <si>
     <t>Specificity</t>
-  </si>
-  <si>
-    <t>At 0.5</t>
-  </si>
-  <si>
-    <t>At 0.3</t>
   </si>
 </sst>
 </file>
@@ -186,18 +179,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -227,9 +214,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -550,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEFB263-D144-4AEE-ADB0-1B0E7C326B87}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:J25"/>
     </sheetView>
   </sheetViews>
@@ -907,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F94984-ADD1-4EE0-8692-54F63AE2B145}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -954,17 +938,17 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1070,135 +1054,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC98EF4-BC18-481C-9067-4173463EEB37}">
-  <dimension ref="F1:N20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="9" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1">
-        <v>18197</v>
-      </c>
-      <c r="N12" s="1">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="13" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2561</v>
-      </c>
-      <c r="N13" s="1">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="14" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="6:14" x14ac:dyDescent="0.35">
-      <c r="L16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="L17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="L19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="1">
-        <v>18711</v>
-      </c>
-      <c r="N19" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="L20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="1">
-        <v>3307</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2677</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>